--- a/Notes and scripts/Alt layout help sheet.xlsx
+++ b/Notes and scripts/Alt layout help sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam2/Documents/QMK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam2/Documents/GitHub/qmk_firmware/Notes and scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B073C305-5EAF-A043-BADF-85AB83628A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61007B-419E-084F-9866-8FBE1C382465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{A6F6E149-121B-F84A-9B42-431FA814CB94}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A6F6E149-121B-F84A-9B42-431FA814CB94}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone map" sheetId="1" r:id="rId1"/>
@@ -743,42 +743,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,15 +782,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,6 +790,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,347 +1158,347 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
         <v>100</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>99</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>98</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>97</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>96</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>95</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>94</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>93</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>92</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>91</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>90</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <v>89</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>88</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="7"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>101</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>102</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>103</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>104</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>105</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="10">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9">
         <v>62</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5">
         <v>68</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>69</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>70</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>71</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>72</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>73</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>74</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>75</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>76</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>77</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>78</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>79</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>80</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>81</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>82</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1"/>
     <row r="11" spans="1:17">
@@ -1609,701 +1606,701 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="12"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="25" customHeight="1">
-      <c r="B2" s="18">
+      <c r="B2" s="14">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3</v>
+      </c>
+      <c r="J2" s="14">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14">
+        <v>3</v>
+      </c>
+      <c r="L2" s="14">
+        <v>3</v>
+      </c>
+      <c r="M2" s="14">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="18">
-        <v>99</v>
-      </c>
-      <c r="D2" s="18">
-        <v>98</v>
-      </c>
-      <c r="E2" s="18">
-        <v>97</v>
-      </c>
-      <c r="F2" s="18">
-        <v>96</v>
-      </c>
-      <c r="G2" s="18">
-        <v>95</v>
-      </c>
-      <c r="H2" s="18">
-        <v>94</v>
-      </c>
-      <c r="I2" s="18">
-        <v>93</v>
-      </c>
-      <c r="J2" s="18">
-        <v>92</v>
-      </c>
-      <c r="K2" s="18">
-        <v>91</v>
-      </c>
-      <c r="L2" s="18">
-        <v>90</v>
-      </c>
-      <c r="M2" s="18">
-        <v>89</v>
-      </c>
-      <c r="N2" s="18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="14" customFormat="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="25" customHeight="1">
-      <c r="A4" s="18">
-        <v>101</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>2</v>
+      </c>
+      <c r="O4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25" customHeight="1">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5</v>
+      </c>
+      <c r="L6" s="14">
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>2</v>
+      </c>
+      <c r="O6" s="14">
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="11" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25" customHeight="1">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>5</v>
+      </c>
+      <c r="K8" s="14">
+        <v>5</v>
+      </c>
+      <c r="L8" s="14">
+        <v>5</v>
+      </c>
+      <c r="M8" s="14">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16">
         <v>4</v>
       </c>
-      <c r="F4" s="18">
+      <c r="O8" s="18"/>
+      <c r="P8" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="11" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25" customHeight="1">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="18">
-        <v>6</v>
-      </c>
-      <c r="H4" s="18">
-        <v>7</v>
-      </c>
-      <c r="I4" s="18">
-        <v>8</v>
-      </c>
-      <c r="J4" s="18">
-        <v>9</v>
-      </c>
-      <c r="K4" s="18">
-        <v>10</v>
-      </c>
-      <c r="L4" s="18">
-        <v>11</v>
-      </c>
-      <c r="M4" s="18">
-        <v>12</v>
-      </c>
-      <c r="N4" s="18">
-        <v>13</v>
-      </c>
-      <c r="O4" s="18">
-        <v>14</v>
-      </c>
-      <c r="P4" s="18">
+      <c r="H10" s="14">
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
+        <v>5</v>
+      </c>
+      <c r="K10" s="14">
+        <v>5</v>
+      </c>
+      <c r="L10" s="14">
+        <v>5</v>
+      </c>
+      <c r="M10" s="14">
+        <v>5</v>
+      </c>
+      <c r="N10" s="14">
+        <v>5</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="18">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1">
-      <c r="A5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="25" customHeight="1">
-      <c r="A6" s="18">
-        <v>102</v>
-      </c>
-      <c r="B6" s="18">
-        <v>16</v>
-      </c>
-      <c r="C6" s="18">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18">
-        <v>18</v>
-      </c>
-      <c r="E6" s="18">
-        <v>19</v>
-      </c>
-      <c r="F6" s="18">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18">
-        <v>21</v>
-      </c>
-      <c r="H6" s="18">
-        <v>22</v>
-      </c>
-      <c r="I6" s="18">
-        <v>23</v>
-      </c>
-      <c r="J6" s="18">
-        <v>24</v>
-      </c>
-      <c r="K6" s="18">
-        <v>25</v>
-      </c>
-      <c r="L6" s="18">
-        <v>26</v>
-      </c>
-      <c r="M6" s="18">
-        <v>27</v>
-      </c>
-      <c r="N6" s="18">
-        <v>28</v>
-      </c>
-      <c r="O6" s="18">
-        <v>29</v>
-      </c>
-      <c r="P6" s="18">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="14" customFormat="1">
-      <c r="A7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="25" customHeight="1">
-      <c r="A8" s="18">
-        <v>103</v>
-      </c>
-      <c r="B8" s="18">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18">
-        <v>32</v>
-      </c>
-      <c r="D8" s="18">
-        <v>33</v>
-      </c>
-      <c r="E8" s="18">
-        <v>34</v>
-      </c>
-      <c r="F8" s="18">
-        <v>35</v>
-      </c>
-      <c r="G8" s="18">
-        <v>36</v>
-      </c>
-      <c r="H8" s="18">
-        <v>37</v>
-      </c>
-      <c r="I8" s="18">
-        <v>38</v>
-      </c>
-      <c r="J8" s="18">
-        <v>39</v>
-      </c>
-      <c r="K8" s="18">
-        <v>40</v>
-      </c>
-      <c r="L8" s="18">
-        <v>41</v>
-      </c>
-      <c r="M8" s="18">
-        <v>42</v>
-      </c>
-      <c r="N8" s="23">
-        <v>43</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="18">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="14" customFormat="1">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="25" customHeight="1">
-      <c r="A10" s="18">
-        <v>104</v>
-      </c>
-      <c r="B10" s="16">
-        <v>45</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18">
-        <v>46</v>
-      </c>
-      <c r="E10" s="18">
-        <v>47</v>
-      </c>
-      <c r="F10" s="18">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18">
-        <v>49</v>
-      </c>
-      <c r="H10" s="18">
-        <v>50</v>
-      </c>
-      <c r="I10" s="18">
-        <v>51</v>
-      </c>
-      <c r="J10" s="18">
-        <v>52</v>
-      </c>
-      <c r="K10" s="18">
-        <v>53</v>
-      </c>
-      <c r="L10" s="18">
-        <v>54</v>
-      </c>
-      <c r="M10" s="18">
-        <v>55</v>
-      </c>
-      <c r="N10" s="18">
-        <v>56</v>
-      </c>
-      <c r="O10" s="18">
-        <v>57</v>
-      </c>
-      <c r="P10" s="18">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="19" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25" customHeight="1">
-      <c r="A12" s="18">
-        <v>105</v>
-      </c>
-      <c r="B12" s="18">
-        <v>59</v>
-      </c>
-      <c r="C12" s="18">
-        <v>60</v>
-      </c>
-      <c r="D12" s="18">
-        <v>61</v>
-      </c>
-      <c r="E12" s="23">
-        <v>62</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18">
-        <v>63</v>
-      </c>
-      <c r="M12" s="18">
-        <v>64</v>
-      </c>
-      <c r="N12" s="18">
-        <v>65</v>
-      </c>
-      <c r="O12" s="18">
-        <v>66</v>
-      </c>
-      <c r="P12" s="18">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>83</v>
+      <c r="A12" s="14">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="14">
+        <v>2</v>
+      </c>
+      <c r="M12" s="14">
+        <v>4</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1">
-      <c r="B14" s="18">
-        <v>68</v>
-      </c>
-      <c r="C14" s="18">
-        <v>69</v>
-      </c>
-      <c r="D14" s="18">
-        <v>70</v>
-      </c>
-      <c r="E14" s="18">
-        <v>71</v>
-      </c>
-      <c r="F14" s="18">
-        <v>72</v>
-      </c>
-      <c r="G14" s="18">
-        <v>73</v>
-      </c>
-      <c r="H14" s="18">
-        <v>74</v>
-      </c>
-      <c r="I14" s="18">
-        <v>75</v>
-      </c>
-      <c r="J14" s="18">
-        <v>76</v>
-      </c>
-      <c r="K14" s="18">
-        <v>77</v>
-      </c>
-      <c r="L14" s="18">
-        <v>78</v>
-      </c>
-      <c r="M14" s="18">
-        <v>79</v>
-      </c>
-      <c r="N14" s="18">
-        <v>80</v>
-      </c>
-      <c r="O14" s="18">
-        <v>81</v>
-      </c>
-      <c r="P14" s="18">
-        <v>82</v>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3</v>
+      </c>
+      <c r="N14" s="14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E12:K12"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2 A4:Q4 A6:Q6 A8:Q8 A10:Q10 A12:Q12 B14:P14">
     <cfRule type="colorScale" priority="1">
@@ -2326,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09C0BFF-9F47-7B4D-9825-8CAA87F69F2E}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2343,14 +2340,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
@@ -2390,7 +2387,7 @@
       </c>
       <c r="B3">
         <f>Layout!B4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2400,11 +2397,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF($B3,F$2)*POWER(2,$D3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:K3" si="0">COUNTIF($B3,G$2)*POWER(2,$D3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -2468,7 +2465,7 @@
       </c>
       <c r="B5">
         <f ca="1">OFFSET(Layout!$B$4,0,2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2477,27 +2474,27 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <f ca="1">COUNTIF($B5,F$2)*POWER(2,$D5)</f>
+        <f t="shared" ref="F5:K15" ca="1" si="2">COUNTIF($B5,F$2)*POWER(2,$D5)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f ca="1">COUNTIF($B5,G$2)*POWER(2,$D5)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="H5">
-        <f ca="1">COUNTIF($B5,H$2)*POWER(2,$D5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f ca="1">COUNTIF($B5,I$2)*POWER(2,$D5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f ca="1">COUNTIF($B5,J$2)*POWER(2,$D5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f ca="1">COUNTIF($B5,K$2)*POWER(2,$D5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2507,7 +2504,7 @@
       </c>
       <c r="B6">
         <f ca="1">OFFSET(Layout!$B$4,0,3)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2516,27 +2513,27 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <f ca="1">COUNTIF($B6,F$2)*POWER(2,$D6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f ca="1">COUNTIF($B6,G$2)*POWER(2,$D6)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="H6">
-        <f ca="1">COUNTIF($B6,H$2)*POWER(2,$D6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f ca="1">COUNTIF($B6,I$2)*POWER(2,$D6)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f ca="1">COUNTIF($B6,J$2)*POWER(2,$D6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f ca="1">COUNTIF($B6,K$2)*POWER(2,$D6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +2543,7 @@
       </c>
       <c r="B7">
         <f ca="1">OFFSET(Layout!$B$4,0,4)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2555,27 +2552,27 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f ca="1">COUNTIF($B7,F$2)*POWER(2,$D7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f ca="1">COUNTIF($B7,G$2)*POWER(2,$D7)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
       </c>
       <c r="H7">
-        <f ca="1">COUNTIF($B7,H$2)*POWER(2,$D7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f ca="1">COUNTIF($B7,I$2)*POWER(2,$D7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f ca="1">COUNTIF($B7,J$2)*POWER(2,$D7)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f ca="1">COUNTIF($B7,K$2)*POWER(2,$D7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2585,7 +2582,7 @@
       </c>
       <c r="B8">
         <f ca="1">OFFSET(Layout!$B$4,0,5)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2594,28 +2591,28 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <f ca="1">COUNTIF($B8,F$2)*POWER(2,$D8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f ca="1">COUNTIF($B8,G$2)*POWER(2,$D8)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
       </c>
       <c r="H8">
-        <f ca="1">COUNTIF($B8,H$2)*POWER(2,$D8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f ca="1">COUNTIF($B8,I$2)*POWER(2,$D8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f ca="1">COUNTIF($B8,J$2)*POWER(2,$D8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f ca="1">COUNTIF($B8,K$2)*POWER(2,$D8)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2624,7 +2621,7 @@
       </c>
       <c r="B9">
         <f ca="1">OFFSET(Layout!$B$4,0,6)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2633,27 +2630,27 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <f ca="1">COUNTIF($B9,F$2)*POWER(2,$D9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f ca="1">COUNTIF($B9,G$2)*POWER(2,$D9)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
       </c>
       <c r="H9">
-        <f ca="1">COUNTIF($B9,H$2)*POWER(2,$D9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f ca="1">COUNTIF($B9,I$2)*POWER(2,$D9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f ca="1">COUNTIF($B9,J$2)*POWER(2,$D9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f ca="1">COUNTIF($B9,K$2)*POWER(2,$D9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2663,7 +2660,7 @@
       </c>
       <c r="B10">
         <f ca="1">OFFSET(Layout!$B$4,0,7)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2672,27 +2669,27 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <f ca="1">COUNTIF($B10,F$2)*POWER(2,$D10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f ca="1">COUNTIF($B10,G$2)*POWER(2,$D10)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>128</v>
       </c>
       <c r="H10">
-        <f ca="1">COUNTIF($B10,H$2)*POWER(2,$D10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f ca="1">COUNTIF($B10,I$2)*POWER(2,$D10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f ca="1">COUNTIF($B10,J$2)*POWER(2,$D10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f ca="1">COUNTIF($B10,K$2)*POWER(2,$D10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2699,7 @@
       </c>
       <c r="B11">
         <f ca="1">OFFSET(Layout!$B$4,0,8)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2711,27 +2708,27 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f ca="1">COUNTIF($B11,F$2)*POWER(2,$D11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f ca="1">COUNTIF($B11,G$2)*POWER(2,$D11)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>256</v>
       </c>
       <c r="H11">
-        <f ca="1">COUNTIF($B11,H$2)*POWER(2,$D11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f ca="1">COUNTIF($B11,I$2)*POWER(2,$D11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f ca="1">COUNTIF($B11,J$2)*POWER(2,$D11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f ca="1">COUNTIF($B11,K$2)*POWER(2,$D11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2738,7 @@
       </c>
       <c r="B12">
         <f ca="1">OFFSET(Layout!$B$4,0,9)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2750,27 +2747,27 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f ca="1">COUNTIF($B12,F$2)*POWER(2,$D12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f ca="1">COUNTIF($B12,G$2)*POWER(2,$D12)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>512</v>
       </c>
       <c r="H12">
-        <f ca="1">COUNTIF($B12,H$2)*POWER(2,$D12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f ca="1">COUNTIF($B12,I$2)*POWER(2,$D12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f ca="1">COUNTIF($B12,J$2)*POWER(2,$D12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f ca="1">COUNTIF($B12,K$2)*POWER(2,$D12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2780,7 +2777,7 @@
       </c>
       <c r="B13">
         <f ca="1">OFFSET(Layout!$B$4,0,10)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2789,27 +2786,27 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <f ca="1">COUNTIF($B13,F$2)*POWER(2,$D13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f ca="1">COUNTIF($B13,G$2)*POWER(2,$D13)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1024</v>
       </c>
       <c r="H13">
-        <f ca="1">COUNTIF($B13,H$2)*POWER(2,$D13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f ca="1">COUNTIF($B13,I$2)*POWER(2,$D13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f ca="1">COUNTIF($B13,J$2)*POWER(2,$D13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f ca="1">COUNTIF($B13,K$2)*POWER(2,$D13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2819,7 +2816,7 @@
       </c>
       <c r="B14">
         <f ca="1">OFFSET(Layout!$B$4,0,11)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2828,27 +2825,27 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <f ca="1">COUNTIF($B14,F$2)*POWER(2,$D14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f ca="1">COUNTIF($B14,G$2)*POWER(2,$D14)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2048</v>
       </c>
       <c r="H14">
-        <f ca="1">COUNTIF($B14,H$2)*POWER(2,$D14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f ca="1">COUNTIF($B14,I$2)*POWER(2,$D14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f ca="1">COUNTIF($B14,J$2)*POWER(2,$D14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f ca="1">COUNTIF($B14,K$2)*POWER(2,$D14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +2855,7 @@
       </c>
       <c r="B15">
         <f ca="1">OFFSET(Layout!$B$4,0,12)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2867,27 +2864,27 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <f ca="1">COUNTIF($B15,F$2)*POWER(2,$D15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f ca="1">COUNTIF($B15,G$2)*POWER(2,$D15)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4096</v>
       </c>
       <c r="H15">
-        <f ca="1">COUNTIF($B15,H$2)*POWER(2,$D15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f ca="1">COUNTIF($B15,I$2)*POWER(2,$D15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f ca="1">COUNTIF($B15,J$2)*POWER(2,$D15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f ca="1">COUNTIF($B15,K$2)*POWER(2,$D15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2894,7 @@
       </c>
       <c r="B16">
         <f ca="1">OFFSET(Layout!$B$4,0,13)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2923,7 +2920,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
@@ -2936,7 +2933,7 @@
       </c>
       <c r="B17">
         <f ca="1">OFFSET(Layout!$B$4,0,14)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2962,7 +2959,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
@@ -2975,7 +2972,7 @@
       </c>
       <c r="B18">
         <f>Layout!B6</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2985,7 +2982,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -3014,7 +3011,7 @@
       </c>
       <c r="B19">
         <f ca="1">OFFSET(Layout!$B$6,0,1)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3024,7 +3021,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>65536</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
@@ -3053,7 +3050,7 @@
       </c>
       <c r="B20">
         <f ca="1">OFFSET(Layout!$B$6,0,2)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
@@ -3092,7 +3089,7 @@
       </c>
       <c r="B21">
         <f ca="1">OFFSET(Layout!$B$6,0,3)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3102,7 +3099,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>262144</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
@@ -3131,7 +3128,7 @@
       </c>
       <c r="B22">
         <f ca="1">OFFSET(Layout!$B$6,0,4)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3157,7 +3154,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>524288</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
@@ -3170,7 +3167,7 @@
       </c>
       <c r="B23">
         <f ca="1">OFFSET(Layout!$B$6,0,5)</f>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3196,7 +3193,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1048576</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
@@ -3209,7 +3206,7 @@
       </c>
       <c r="B24">
         <f ca="1">OFFSET(Layout!$B$6,0,6)</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3235,7 +3232,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
@@ -3248,7 +3245,7 @@
       </c>
       <c r="B25">
         <f ca="1">OFFSET(Layout!$B$6,0,7)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3274,7 +3271,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4194304</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
@@ -3287,7 +3284,7 @@
       </c>
       <c r="B26">
         <f ca="1">OFFSET(Layout!$B$6,0,8)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3313,7 +3310,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
@@ -3326,7 +3323,7 @@
       </c>
       <c r="B27">
         <f ca="1">OFFSET(Layout!$B$6,0,9)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3352,7 +3349,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16777216</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
@@ -3365,7 +3362,7 @@
       </c>
       <c r="B28">
         <f ca="1">OFFSET(Layout!$B$6,0,10)</f>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3391,7 +3388,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>33554432</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
@@ -3404,7 +3401,7 @@
       </c>
       <c r="B29">
         <f ca="1">OFFSET(Layout!$B$6,0,11)</f>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3418,7 +3415,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
@@ -3443,7 +3440,7 @@
       </c>
       <c r="B30">
         <f ca="1">OFFSET(Layout!$B$6,0,12)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3457,7 +3454,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>134217728</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
@@ -3482,7 +3479,7 @@
       </c>
       <c r="B31">
         <f ca="1">OFFSET(Layout!$B$6,0,13)</f>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3508,7 +3505,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>268435456</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
@@ -3521,7 +3518,7 @@
       </c>
       <c r="B32">
         <f ca="1">OFFSET(Layout!$B$6,0,14)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3535,7 +3532,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>536870912</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
@@ -3560,7 +3557,7 @@
       </c>
       <c r="B33">
         <f>Layout!B8</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1073741824</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
@@ -3599,7 +3596,7 @@
       </c>
       <c r="B34">
         <f ca="1">OFFSET(Layout!$B$8,0,1)</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3609,7 +3606,7 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2147483648</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
@@ -3638,7 +3635,7 @@
       </c>
       <c r="B35">
         <f ca="1">OFFSET(Layout!$B$8,0,2)</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
@@ -3677,7 +3674,7 @@
       </c>
       <c r="B36">
         <f ca="1">OFFSET(Layout!$B$8,0,3)</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3687,7 +3684,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
@@ -3716,7 +3713,7 @@
       </c>
       <c r="B37">
         <f ca="1">OFFSET(Layout!$B$8,0,4)</f>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3742,7 +3739,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
@@ -3755,7 +3752,7 @@
       </c>
       <c r="B38">
         <f ca="1">OFFSET(Layout!$B$8,0,5)</f>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3781,7 +3778,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
@@ -3794,7 +3791,7 @@
       </c>
       <c r="B39">
         <f ca="1">OFFSET(Layout!$B$8,0,6)</f>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3820,7 +3817,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
@@ -3833,7 +3830,7 @@
       </c>
       <c r="B40">
         <f ca="1">OFFSET(Layout!$B$8,0,7)</f>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3859,7 +3856,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="1"/>
@@ -3872,7 +3869,7 @@
       </c>
       <c r="B41">
         <f ca="1">OFFSET(Layout!$B$8,0,8)</f>
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3898,7 +3895,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="1"/>
@@ -3911,7 +3908,7 @@
       </c>
       <c r="B42">
         <f ca="1">OFFSET(Layout!$B$8,0,9)</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3928,19 +3925,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="G42:K57" ca="1" si="2">COUNTIF($B42,H$2)*POWER(2,$D42)</f>
+        <f t="shared" ref="G42:K57" ca="1" si="3">COUNTIF($B42,H$2)*POWER(2,$D42)</f>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>128</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3950,7 +3947,7 @@
       </c>
       <c r="B43">
         <f ca="1">OFFSET(Layout!$B$8,0,10)</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3963,23 +3960,23 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>256</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3989,7 +3986,7 @@
       </c>
       <c r="B44">
         <f ca="1">OFFSET(Layout!$B$8,0,11)</f>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -4002,23 +3999,23 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>512</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4028,7 +4025,7 @@
       </c>
       <c r="B45">
         <f>Layout!N8</f>
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4041,23 +4038,23 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1024</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4067,7 +4064,7 @@
       </c>
       <c r="B46">
         <f>Layout!P8</f>
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -4080,23 +4077,23 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2048</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,7 +4103,7 @@
       </c>
       <c r="B47">
         <f>Layout!B10</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -4116,26 +4113,26 @@
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4145,7 +4142,7 @@
       </c>
       <c r="B48">
         <f>Layout!D10</f>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -4155,26 +4152,26 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4184,7 +4181,7 @@
       </c>
       <c r="B49">
         <f ca="1">OFFSET(Layout!$D$10,0,1)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -4194,26 +4191,26 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4223,7 +4220,7 @@
       </c>
       <c r="B50">
         <f ca="1">OFFSET(Layout!$D$10,0,2)</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -4233,26 +4230,26 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +4259,7 @@
       </c>
       <c r="B51">
         <f ca="1">OFFSET(Layout!$D$10,0,3)</f>
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4275,23 +4272,23 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>65536</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +4298,7 @@
       </c>
       <c r="B52">
         <f ca="1">OFFSET(Layout!$D$10,0,4)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4314,23 +4311,23 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>131072</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4340,7 +4337,7 @@
       </c>
       <c r="B53">
         <f ca="1">OFFSET(Layout!$D$10,0,5)</f>
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4353,23 +4350,23 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>262144</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4379,7 +4376,7 @@
       </c>
       <c r="B54">
         <f ca="1">OFFSET(Layout!$D$10,0,6)</f>
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -4392,23 +4389,23 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>524288</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4415,7 @@
       </c>
       <c r="B55">
         <f ca="1">OFFSET(Layout!$D$10,0,7)</f>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -4431,23 +4428,23 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1048576</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="B56">
         <f ca="1">OFFSET(Layout!$D$10,0,8)</f>
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -4470,23 +4467,23 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2097152</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4496,7 +4493,7 @@
       </c>
       <c r="B57">
         <f ca="1">OFFSET(Layout!$D$10,0,9)</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -4509,23 +4506,23 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4194304</v>
       </c>
       <c r="K57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4535,7 +4532,7 @@
       </c>
       <c r="B58">
         <f ca="1">OFFSET(Layout!$D$10,0,10)</f>
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4548,23 +4545,23 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" ref="G58:K67" ca="1" si="3">COUNTIF($B58,G$2)*POWER(2,$D58)</f>
+        <f t="shared" ref="G58:K67" ca="1" si="4">COUNTIF($B58,G$2)*POWER(2,$D58)</f>
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8388608</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,7 +4571,7 @@
       </c>
       <c r="B59">
         <f ca="1">OFFSET(Layout!$D$10,0,11)</f>
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4584,26 +4581,26 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16777216</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4613,7 +4610,7 @@
       </c>
       <c r="B60">
         <f ca="1">OFFSET(Layout!$D$10,0,12)</f>
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -4626,23 +4623,23 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33554432</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4652,7 +4649,7 @@
       </c>
       <c r="B61">
         <f>Layout!B12</f>
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4665,23 +4662,23 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>67108864</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4688,7 @@
       </c>
       <c r="B62">
         <f>Layout!C12</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4704,23 +4701,23 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>134217728</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4730,7 +4727,7 @@
       </c>
       <c r="B63">
         <f>Layout!D12</f>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4743,23 +4740,23 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>268435456</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4769,7 +4766,7 @@
       </c>
       <c r="B64">
         <f>Layout!E12</f>
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4782,23 +4779,23 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>536870912</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4808,7 +4805,7 @@
       </c>
       <c r="B65">
         <f>Layout!L12</f>
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4821,23 +4818,23 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1073741824</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4844,7 @@
       </c>
       <c r="B66">
         <f ca="1">OFFSET(Layout!$L$12,0,1)</f>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4860,23 +4857,23 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2147483648</v>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4886,7 +4883,7 @@
       </c>
       <c r="B67">
         <f ca="1">OFFSET(Layout!$L$12,0,2)</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4896,26 +4893,26 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4925,7 +4922,7 @@
       </c>
       <c r="B68">
         <f ca="1">OFFSET(Layout!$L$12,0,3)</f>
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4934,27 +4931,27 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:K107" ca="1" si="4">COUNTIF($B68,F$2)*POWER(2,$D68)</f>
-        <v>0</v>
+        <f t="shared" ref="F68:K107" ca="1" si="5">COUNTIF($B68,F$2)*POWER(2,$D68)</f>
+        <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +4961,7 @@
       </c>
       <c r="B69">
         <f ca="1">OFFSET(Layout!$L$12,0,4)</f>
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4973,27 +4970,27 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5003,7 +5000,7 @@
       </c>
       <c r="B70">
         <f>Layout!B14</f>
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5012,27 +5009,27 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5042,7 +5039,7 @@
       </c>
       <c r="B71">
         <f ca="1">OFFSET(Layout!$B$14,0,1)</f>
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -5051,27 +5048,27 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
       </c>
       <c r="I71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5078,7 @@
       </c>
       <c r="B72">
         <f ca="1">OFFSET(Layout!$B$14,0,2)</f>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5090,27 +5087,27 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="I72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5120,7 +5117,7 @@
       </c>
       <c r="B73">
         <f ca="1">OFFSET(Layout!$B$14,0,3)</f>
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5129,27 +5126,27 @@
         <v>6</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
       </c>
       <c r="I73">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5159,7 +5156,7 @@
       </c>
       <c r="B74">
         <f ca="1">OFFSET(Layout!$B$14,0,4)</f>
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -5168,27 +5165,27 @@
         <v>7</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>128</v>
       </c>
       <c r="I74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5198,7 +5195,7 @@
       </c>
       <c r="B75">
         <f ca="1">OFFSET(Layout!$B$14,0,5)</f>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5207,27 +5204,27 @@
         <v>8</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>256</v>
       </c>
       <c r="I75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +5234,7 @@
       </c>
       <c r="B76">
         <f ca="1">OFFSET(Layout!$B$14,0,6)</f>
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -5246,27 +5243,27 @@
         <v>9</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>512</v>
       </c>
       <c r="I76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5276,7 +5273,7 @@
       </c>
       <c r="B77">
         <f ca="1">OFFSET(Layout!$B$14,0,7)</f>
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -5285,27 +5282,27 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1024</v>
       </c>
       <c r="I77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5315,7 +5312,7 @@
       </c>
       <c r="B78">
         <f ca="1">OFFSET(Layout!$B$14,0,8)</f>
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5324,27 +5321,27 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2048</v>
       </c>
       <c r="I78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5354,7 +5351,7 @@
       </c>
       <c r="B79">
         <f ca="1">OFFSET(Layout!$B$14,0,9)</f>
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -5363,27 +5360,27 @@
         <v>12</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4096</v>
       </c>
       <c r="I79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5393,7 +5390,7 @@
       </c>
       <c r="B80">
         <f ca="1">OFFSET(Layout!$B$14,0,10)</f>
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -5402,27 +5399,27 @@
         <v>13</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8192</v>
       </c>
       <c r="I80">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5432,7 +5429,7 @@
       </c>
       <c r="B81">
         <f ca="1">OFFSET(Layout!$B$14,0,11)</f>
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -5441,27 +5438,27 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16384</v>
       </c>
       <c r="I81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5471,7 +5468,7 @@
       </c>
       <c r="B82">
         <f ca="1">OFFSET(Layout!$B$14,0,12)</f>
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -5480,27 +5477,27 @@
         <v>15</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32768</v>
       </c>
       <c r="I82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5507,7 @@
       </c>
       <c r="B83">
         <f ca="1">OFFSET(Layout!$B$14,0,13)</f>
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5519,27 +5516,27 @@
         <v>16</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>65536</v>
       </c>
       <c r="I83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="B84">
         <f ca="1">OFFSET(Layout!$B$14,0,14)</f>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -5558,27 +5555,27 @@
         <v>17</v>
       </c>
       <c r="F84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>131072</v>
       </c>
       <c r="I84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5588,7 +5585,7 @@
       </c>
       <c r="B85">
         <f>Layout!Q12</f>
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5597,27 +5594,27 @@
         <v>18</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>262144</v>
       </c>
       <c r="I85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5627,7 +5624,7 @@
       </c>
       <c r="B86">
         <f ca="1">OFFSET(Layout!$Q$12,-2,0)</f>
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -5636,27 +5633,27 @@
         <v>19</v>
       </c>
       <c r="F86">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>524288</v>
       </c>
       <c r="I86">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5666,7 +5663,7 @@
       </c>
       <c r="B87">
         <f ca="1">OFFSET(Layout!$Q$12,-4,0)</f>
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -5675,27 +5672,27 @@
         <v>20</v>
       </c>
       <c r="F87">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1048576</v>
       </c>
       <c r="I87">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5705,7 +5702,7 @@
       </c>
       <c r="B88">
         <f ca="1">OFFSET(Layout!$Q$12,-6,0)</f>
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -5714,27 +5711,27 @@
         <v>21</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2097152</v>
       </c>
       <c r="I88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5744,7 +5741,7 @@
       </c>
       <c r="B89">
         <f ca="1">OFFSET(Layout!$Q$12,-8,0)</f>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -5753,27 +5750,27 @@
         <v>22</v>
       </c>
       <c r="F89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4194304</v>
       </c>
       <c r="I89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5783,7 +5780,7 @@
       </c>
       <c r="B90">
         <f>Layout!N2</f>
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -5792,27 +5789,27 @@
         <v>23</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8388608</v>
       </c>
       <c r="I90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5822,7 +5819,7 @@
       </c>
       <c r="B91">
         <f ca="1">OFFSET(Layout!$N$2,0,-1)</f>
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5831,27 +5828,27 @@
         <v>24</v>
       </c>
       <c r="F91">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16777216</v>
       </c>
       <c r="I91">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K91">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5861,7 +5858,7 @@
       </c>
       <c r="B92">
         <f ca="1">OFFSET(Layout!$N$2,0,-2)</f>
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -5870,27 +5867,27 @@
         <v>25</v>
       </c>
       <c r="F92">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33554432</v>
       </c>
       <c r="I92">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5900,7 +5897,7 @@
       </c>
       <c r="B93">
         <f ca="1">OFFSET(Layout!$N$2,0,-3)</f>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5909,27 +5906,27 @@
         <v>26</v>
       </c>
       <c r="F93">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>67108864</v>
       </c>
       <c r="I93">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5939,7 +5936,7 @@
       </c>
       <c r="B94">
         <f ca="1">OFFSET(Layout!$N$2,0,-4)</f>
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5948,27 +5945,27 @@
         <v>27</v>
       </c>
       <c r="F94">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>134217728</v>
       </c>
       <c r="I94">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5978,7 +5975,7 @@
       </c>
       <c r="B95">
         <f ca="1">OFFSET(Layout!$N$2,0,-5)</f>
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -5987,27 +5984,27 @@
         <v>28</v>
       </c>
       <c r="F95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>268435456</v>
       </c>
       <c r="I95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6017,7 +6014,7 @@
       </c>
       <c r="B96">
         <f ca="1">OFFSET(Layout!$N$2,0,-6)</f>
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -6026,27 +6023,27 @@
         <v>29</v>
       </c>
       <c r="F96">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>536870912</v>
       </c>
       <c r="I96">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K96">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +6053,7 @@
       </c>
       <c r="B97">
         <f ca="1">OFFSET(Layout!$N$2,0,-7)</f>
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -6065,27 +6062,27 @@
         <v>30</v>
       </c>
       <c r="F97">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1073741824</v>
       </c>
       <c r="I97">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6095,7 +6092,7 @@
       </c>
       <c r="B98">
         <f ca="1">OFFSET(Layout!$N$2,0,-8)</f>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -6104,27 +6101,27 @@
         <v>31</v>
       </c>
       <c r="F98">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2147483648</v>
       </c>
       <c r="I98">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6134,7 +6131,7 @@
       </c>
       <c r="B99">
         <f ca="1">OFFSET(Layout!$N$2,0,-9)</f>
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -6143,27 +6140,27 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="I99">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6173,7 +6170,7 @@
       </c>
       <c r="B100">
         <f ca="1">OFFSET(Layout!$N$2,0,-10)</f>
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -6182,27 +6179,27 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="I100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6212,7 +6209,7 @@
       </c>
       <c r="B101">
         <f ca="1">OFFSET(Layout!$N$2,0,-11)</f>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -6221,27 +6218,27 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6251,7 +6248,7 @@
       </c>
       <c r="B102">
         <f ca="1">OFFSET(Layout!$N$2,0,-12)</f>
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -6260,27 +6257,27 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="I102">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6290,7 +6287,7 @@
       </c>
       <c r="B103">
         <f>Layout!A4</f>
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -6299,27 +6296,27 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="I103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6329,7 +6326,7 @@
       </c>
       <c r="B104">
         <f ca="1">OFFSET(Layout!$A$4,2,0)</f>
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -6338,27 +6335,27 @@
         <v>5</v>
       </c>
       <c r="F104">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="I104">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6368,7 +6365,7 @@
       </c>
       <c r="B105">
         <f ca="1">OFFSET(Layout!$A$4,4,0)</f>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -6377,27 +6374,27 @@
         <v>6</v>
       </c>
       <c r="F105">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
       </c>
       <c r="I105">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6407,7 +6404,7 @@
       </c>
       <c r="B106">
         <f ca="1">OFFSET(Layout!$A$4,6,0)</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -6416,27 +6413,27 @@
         <v>7</v>
       </c>
       <c r="F106">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>128</v>
       </c>
       <c r="I106">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6446,7 +6443,7 @@
       </c>
       <c r="B107">
         <f ca="1">OFFSET(Layout!$A$4,8,0)</f>
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -6455,27 +6452,27 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>256</v>
       </c>
       <c r="I107">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6504,7 +6501,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6539,15 +6536,15 @@
       </c>
       <c r="B2">
         <f ca="1">SUM(Calcs!F$3:F$34)</f>
-        <v>1</v>
+        <v>3221716992</v>
       </c>
       <c r="C2">
         <f ca="1">SUM(Calcs!F$35:F$66)</f>
-        <v>0</v>
+        <v>16838659</v>
       </c>
       <c r="D2">
         <f ca="1">SUM(Calcs!F$67:F$98)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f ca="1">SUM(Calcs!F$99:F$107)</f>
@@ -6555,7 +6552,7 @@
       </c>
       <c r="G2" t="str">
         <f ca="1">_xlfn.CONCAT(".id0 = ", B2, ", .id1 = ", C2, ", .id2 = ", D2, ", .id3 = ", E2)</f>
-        <v>.id0 = 1, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 3221716992, .id1 = 16838659, .id2 = 7, .id3 = 0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6564,11 +6561,11 @@
       </c>
       <c r="B3">
         <f ca="1">SUM(Calcs!G$3:G$34)</f>
-        <v>2</v>
+        <v>738205695</v>
       </c>
       <c r="C3">
         <f ca="1">SUM(Calcs!G$35:G$66)</f>
-        <v>0</v>
+        <v>1912604672</v>
       </c>
       <c r="D3">
         <f ca="1">SUM(Calcs!G$67:G$98)</f>
@@ -6580,7 +6577,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" ca="1" si="0">_xlfn.CONCAT(".id0 = ", B3, ", .id1 = ", C3, ", .id2 = ", D3, ", .id3 = ", E3)</f>
-        <v>.id0 = 2, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 738205695, .id1 = 1912604672, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6589,7 +6586,7 @@
       </c>
       <c r="B4">
         <f ca="1">SUM(Calcs!H$3:H$34)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f ca="1">SUM(Calcs!H$35:H$66)</f>
@@ -6597,15 +6594,15 @@
       </c>
       <c r="D4">
         <f ca="1">SUM(Calcs!H$67:H$98)</f>
-        <v>0</v>
+        <v>4294967288</v>
       </c>
       <c r="E4">
         <f ca="1">SUM(Calcs!H$99:H$107)</f>
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 4, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 0, .id1 = 0, .id2 = 4294967288, .id3 = 511</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6614,11 +6611,11 @@
       </c>
       <c r="B5">
         <f ca="1">SUM(Calcs!I$3:I$34)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f ca="1">SUM(Calcs!I$35:I$66)</f>
-        <v>0</v>
+        <v>2147484672</v>
       </c>
       <c r="D5">
         <f ca="1">SUM(Calcs!I$67:I$98)</f>
@@ -6630,7 +6627,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 8, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 0, .id1 = 2147484672, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6639,11 +6636,11 @@
       </c>
       <c r="B6">
         <f ca="1">SUM(Calcs!J$3:J$34)</f>
-        <v>16</v>
+        <v>335044608</v>
       </c>
       <c r="C6">
         <f ca="1">SUM(Calcs!J$35:J$66)</f>
-        <v>0</v>
+        <v>218039292</v>
       </c>
       <c r="D6">
         <f ca="1">SUM(Calcs!J$67:J$98)</f>
@@ -6655,7 +6652,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 16, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 335044608, .id1 = 218039292, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6664,7 +6661,7 @@
       </c>
       <c r="B7">
         <f ca="1">SUM(Calcs!K$3:K$34)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f ca="1">SUM(Calcs!K$35:K$66)</f>
@@ -6680,7 +6677,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 32, .id1 = 0, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 0, .id1 = 0, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6689,22 +6686,23 @@
       </c>
       <c r="B9" s="1" t="str">
         <f ca="1">IF(SUM(B2:B7)=(POWER(2,32)-1),"✅","❌")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ref="C9:D9" ca="1" si="1">IF(SUM(C2:C7)=(POWER(2,32)-1),"✅","❌")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f ca="1">IF(SUM(E2:E7)=(POWER(2,23)-1),"✅","❌")</f>
-        <v>❌</v>
+        <f ca="1">IF(SUM(E2:E7)=(POWER(2,9)-1),"✅","❌")</f>
+        <v>✅</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Notes and scripts/Alt layout help sheet.xlsx
+++ b/Notes and scripts/Alt layout help sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam2/Documents/GitHub/qmk_firmware/Notes and scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61007B-419E-084F-9866-8FBE1C382465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87587DEE-F709-5E41-88AA-DCF96ED1838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A6F6E149-121B-F84A-9B42-431FA814CB94}"/>
+    <workbookView xWindow="38380" yWindow="-2780" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{A6F6E149-121B-F84A-9B42-431FA814CB94}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone map" sheetId="1" r:id="rId1"/>
@@ -1606,8 +1606,8 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1661,43 +1661,43 @@
     </row>
     <row r="2" spans="1:17" ht="25" customHeight="1">
       <c r="B2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
@@ -1755,10 +1755,10 @@
     </row>
     <row r="4" spans="1:17" ht="25" customHeight="1">
       <c r="A4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14">
         <v>2</v>
@@ -1797,13 +1797,13 @@
         <v>2</v>
       </c>
       <c r="O4" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1">
@@ -1861,40 +1861,40 @@
     </row>
     <row r="6" spans="1:17" ht="25" customHeight="1">
       <c r="A6" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" s="14">
         <v>2</v>
@@ -1903,13 +1903,13 @@
         <v>2</v>
       </c>
       <c r="O6" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="14">
         <v>2</v>
       </c>
       <c r="Q6" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="11" customFormat="1">
@@ -1965,53 +1965,53 @@
     </row>
     <row r="8" spans="1:17" ht="25" customHeight="1">
       <c r="A8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="14">
         <v>2</v>
       </c>
       <c r="Q8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="11" customFormat="1">
@@ -2067,44 +2067,44 @@
     </row>
     <row r="10" spans="1:17" ht="25" customHeight="1">
       <c r="A10" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="14">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="11" customFormat="1">
@@ -2159,19 +2159,19 @@
     </row>
     <row r="12" spans="1:17" ht="25" customHeight="1">
       <c r="A12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -2180,10 +2180,10 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
       <c r="L12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="14">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2247,49 +2247,49 @@
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1">
       <c r="B14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="25" customHeight="1"/>
@@ -2324,7 +2324,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B3">
         <f>Layout!B4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2397,11 +2397,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF($B3,F$2)*POWER(2,$D3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:K3" si="0">COUNTIF($B3,G$2)*POWER(2,$D3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B16">
         <f ca="1">OFFSET(Layout!$B$4,0,13)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B17">
         <f ca="1">OFFSET(Layout!$B$4,0,14)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B19">
         <f ca="1">OFFSET(Layout!$B$6,0,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3021,15 +3021,15 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
         <v>65536</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B20">
         <f ca="1">OFFSET(Layout!$B$6,0,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3060,15 +3060,15 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
         <v>131072</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B21">
         <f ca="1">OFFSET(Layout!$B$6,0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3099,15 +3099,15 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="1"/>
         <v>262144</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B22">
         <f ca="1">OFFSET(Layout!$B$6,0,4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>524288</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B23">
         <f ca="1">OFFSET(Layout!$B$6,0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1048576</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B24">
         <f ca="1">OFFSET(Layout!$B$6,0,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B25">
         <f ca="1">OFFSET(Layout!$B$6,0,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4194304</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B26">
         <f ca="1">OFFSET(Layout!$B$6,0,8)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B27">
         <f ca="1">OFFSET(Layout!$B$6,0,9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16777216</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B28">
         <f ca="1">OFFSET(Layout!$B$6,0,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>33554432</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B31">
         <f ca="1">OFFSET(Layout!$B$6,0,13)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>268435456</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B34">
         <f ca="1">OFFSET(Layout!$B$8,0,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3606,15 +3606,15 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="1"/>
         <v>2147483648</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B35">
         <f ca="1">OFFSET(Layout!$B$8,0,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B36">
         <f ca="1">OFFSET(Layout!$B$8,0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B37">
         <f ca="1">OFFSET(Layout!$B$8,0,4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B38">
         <f ca="1">OFFSET(Layout!$B$8,0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B39">
         <f ca="1">OFFSET(Layout!$B$8,0,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B40">
         <f ca="1">OFFSET(Layout!$B$8,0,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="1"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B41">
         <f ca="1">OFFSET(Layout!$B$8,0,8)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="1"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="1"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B42">
         <f ca="1">OFFSET(Layout!$B$8,0,9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="H42">
         <f t="shared" ref="G42:K57" ca="1" si="3">COUNTIF($B42,H$2)*POWER(2,$D42)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="3"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B43">
         <f ca="1">OFFSET(Layout!$B$8,0,10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="3"/>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B44">
         <f ca="1">OFFSET(Layout!$B$8,0,11)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="3"/>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="3"/>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B45">
         <f>Layout!N8</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B48">
         <f>Layout!D10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B49">
         <f ca="1">OFFSET(Layout!$D$10,0,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B50">
         <f ca="1">OFFSET(Layout!$D$10,0,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="3"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B51">
         <f ca="1">OFFSET(Layout!$D$10,0,3)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>65536</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="3"/>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B52">
         <f ca="1">OFFSET(Layout!$D$10,0,4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="3"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B53">
         <f ca="1">OFFSET(Layout!$D$10,0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>262144</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="3"/>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="3"/>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B54">
         <f ca="1">OFFSET(Layout!$D$10,0,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>524288</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="3"/>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="3"/>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="B55">
         <f ca="1">OFFSET(Layout!$D$10,0,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1048576</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="3"/>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="3"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B56">
         <f ca="1">OFFSET(Layout!$D$10,0,8)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="3"/>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="3"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B57">
         <f ca="1">OFFSET(Layout!$D$10,0,9)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4194304</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="3"/>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="3"/>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B58">
         <f ca="1">OFFSET(Layout!$D$10,0,10)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="G58">
         <f t="shared" ref="G58:K67" ca="1" si="4">COUNTIF($B58,G$2)*POWER(2,$D58)</f>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="4"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B61">
         <f>Layout!B12</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B62">
         <f>Layout!C12</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134217728</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B63">
         <f>Layout!D12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4737,11 +4737,11 @@
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>268435456</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f t="shared" si="4"/>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B64">
         <f>Layout!E12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4776,11 +4776,11 @@
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>536870912</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" si="4"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="B65">
         <f>Layout!L12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4815,11 +4815,11 @@
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1073741824</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f t="shared" si="4"/>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B66">
         <f ca="1">OFFSET(Layout!$L$12,0,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2147483648</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="4"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="4"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B70">
         <f>Layout!B14</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B71">
         <f ca="1">OFFSET(Layout!$B$14,0,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="5"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="B72">
         <f ca="1">OFFSET(Layout!$B$14,0,2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="5"/>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B73">
         <f ca="1">OFFSET(Layout!$B$14,0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="5"/>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B74">
         <f ca="1">OFFSET(Layout!$B$14,0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="5"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="5"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B75">
         <f ca="1">OFFSET(Layout!$B$14,0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="5"/>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B76">
         <f ca="1">OFFSET(Layout!$B$14,0,6)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="5"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="5"/>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B77">
         <f ca="1">OFFSET(Layout!$B$14,0,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="5"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="5"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B78">
         <f ca="1">OFFSET(Layout!$B$14,0,8)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="5"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="5"/>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B79">
         <f ca="1">OFFSET(Layout!$B$14,0,9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="5"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="5"/>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B80">
         <f ca="1">OFFSET(Layout!$B$14,0,10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="5"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="5"/>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B81">
         <f ca="1">OFFSET(Layout!$B$14,0,11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="5"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="5"/>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="B82">
         <f ca="1">OFFSET(Layout!$B$14,0,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="5"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="5"/>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B83">
         <f ca="1">OFFSET(Layout!$B$14,0,13)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>65536</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="5"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="5"/>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B84">
         <f ca="1">OFFSET(Layout!$B$14,0,14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="5"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="5"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B85">
         <f>Layout!Q12</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>262144</v>
       </c>
       <c r="G85">
         <f t="shared" si="5"/>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="H85">
         <f t="shared" si="5"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B86">
         <f ca="1">OFFSET(Layout!$Q$12,-2,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>524288</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="5"/>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="5"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="5"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B87">
         <f ca="1">OFFSET(Layout!$Q$12,-4,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1048576</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="5"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="5"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="5"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="B88">
         <f ca="1">OFFSET(Layout!$Q$12,-6,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="5"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="5"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B89">
         <f ca="1">OFFSET(Layout!$Q$12,-8,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4194304</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="5"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="5"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="5"/>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B90">
         <f>Layout!N2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="G90">
         <f t="shared" si="5"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="H90">
         <f t="shared" si="5"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <f t="shared" si="5"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="B91">
         <f ca="1">OFFSET(Layout!$N$2,0,-1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>16777216</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="5"/>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="5"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="5"/>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B92">
         <f ca="1">OFFSET(Layout!$N$2,0,-2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>33554432</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="5"/>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="5"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="5"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B93">
         <f ca="1">OFFSET(Layout!$N$2,0,-3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="5"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="5"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="5"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B94">
         <f ca="1">OFFSET(Layout!$N$2,0,-4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>134217728</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="5"/>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="5"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="5"/>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="B95">
         <f ca="1">OFFSET(Layout!$N$2,0,-5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>268435456</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="5"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="5"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="5"/>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B96">
         <f ca="1">OFFSET(Layout!$N$2,0,-6)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>536870912</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="5"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="5"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="5"/>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B97">
         <f ca="1">OFFSET(Layout!$N$2,0,-7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1073741824</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="5"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B98">
         <f ca="1">OFFSET(Layout!$N$2,0,-8)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2147483648</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="5"/>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B99">
         <f ca="1">OFFSET(Layout!$N$2,0,-9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="5"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B100">
         <f ca="1">OFFSET(Layout!$N$2,0,-10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="5"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B101">
         <f ca="1">OFFSET(Layout!$N$2,0,-11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="5"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B102">
         <f ca="1">OFFSET(Layout!$N$2,0,-12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="5"/>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B103">
         <f>Layout!A4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G103">
         <f t="shared" si="5"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H103">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <f t="shared" si="5"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B104">
         <f ca="1">OFFSET(Layout!$A$4,2,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="5"/>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B105">
         <f ca="1">OFFSET(Layout!$A$4,4,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="5"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B106">
         <f ca="1">OFFSET(Layout!$A$4,6,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="5"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B107">
         <f ca="1">OFFSET(Layout!$A$4,8,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="5"/>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1FBC6-0864-0145-9FA6-4A5CBA82821E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6536,23 +6536,23 @@
       </c>
       <c r="B2">
         <f ca="1">SUM(Calcs!F$3:F$34)</f>
-        <v>3221716992</v>
+        <v>1073774593</v>
       </c>
       <c r="C2">
         <f ca="1">SUM(Calcs!F$35:F$66)</f>
-        <v>16838659</v>
+        <v>4253029376</v>
       </c>
       <c r="D2">
         <f ca="1">SUM(Calcs!F$67:F$98)</f>
-        <v>7</v>
+        <v>4294967295</v>
       </c>
       <c r="E2">
         <f ca="1">SUM(Calcs!F$99:F$107)</f>
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">_xlfn.CONCAT(".id0 = ", B2, ", .id1 = ", C2, ", .id2 = ", D2, ", .id3 = ", E2)</f>
-        <v>.id0 = 3221716992, .id1 = 16838659, .id2 = 7, .id3 = 0</v>
+        <v>.id0 = 1073774593, .id1 = 4253029376, .id2 = 4294967295, .id3 = 511</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6561,11 +6561,11 @@
       </c>
       <c r="B3">
         <f ca="1">SUM(Calcs!G$3:G$34)</f>
-        <v>738205695</v>
+        <v>1006665726</v>
       </c>
       <c r="C3">
         <f ca="1">SUM(Calcs!G$35:G$66)</f>
-        <v>1912604672</v>
+        <v>40897280</v>
       </c>
       <c r="D3">
         <f ca="1">SUM(Calcs!G$67:G$98)</f>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" ca="1" si="0">_xlfn.CONCAT(".id0 = ", B3, ", .id1 = ", C3, ", .id2 = ", D3, ", .id3 = ", E3)</f>
-        <v>.id0 = 738205695, .id1 = 1912604672, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 1006665726, .id1 = 40897280, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6586,23 +6586,23 @@
       </c>
       <c r="B4">
         <f ca="1">SUM(Calcs!H$3:H$34)</f>
-        <v>0</v>
+        <v>2214526976</v>
       </c>
       <c r="C4">
         <f ca="1">SUM(Calcs!H$35:H$66)</f>
-        <v>0</v>
+        <v>1040639</v>
       </c>
       <c r="D4">
         <f ca="1">SUM(Calcs!H$67:H$98)</f>
-        <v>4294967288</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f ca="1">SUM(Calcs!H$99:H$107)</f>
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 0, .id1 = 0, .id2 = 4294967288, .id3 = 511</v>
+        <v>.id0 = 2214526976, .id1 = 1040639, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="C5">
         <f ca="1">SUM(Calcs!I$35:I$66)</f>
-        <v>2147484672</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f ca="1">SUM(Calcs!I$67:I$98)</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 0, .id1 = 2147484672, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 0, .id1 = 0, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6636,11 +6636,11 @@
       </c>
       <c r="B6">
         <f ca="1">SUM(Calcs!J$3:J$34)</f>
-        <v>335044608</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f ca="1">SUM(Calcs!J$35:J$66)</f>
-        <v>218039292</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f ca="1">SUM(Calcs!J$67:J$98)</f>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>.id0 = 335044608, .id1 = 218039292, .id2 = 0, .id3 = 0</v>
+        <v>.id0 = 0, .id1 = 0, .id2 = 0, .id3 = 0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
